--- a/fat/edqcow2/c.xlsx
+++ b/fat/edqcow2/c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="9540" windowHeight="4275" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="9540" windowHeight="4275" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fopen" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,18 @@
     <sheet name="fseek" sheetId="7" r:id="rId6"/>
     <sheet name="ftell" sheetId="8" r:id="rId7"/>
     <sheet name="rewind" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
+    <sheet name="malloc" sheetId="10" r:id="rId9"/>
+    <sheet name="free" sheetId="11" r:id="rId10"/>
+    <sheet name="memset" sheetId="12" r:id="rId11"/>
+    <sheet name="memcpy" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="360">
   <si>
     <t>function</t>
   </si>
@@ -4181,13 +4185,2177 @@
   <si>
     <t>rewind</t>
     <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>&lt;cstdlib&gt;</t>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t>void* malloc (size_t size);</t>
+  </si>
+  <si>
+    <t>Allocate memory block</t>
+  </si>
+  <si>
+    <r>
+      <t>Allocates a block of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bytes of memory, returning a pointer to the beginning of the block.</t>
+    </r>
+  </si>
+  <si>
+    <t>The content of the newly allocated block of memory is not initialized, remaining with indeterminate values.</t>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is zero, the return value depends on the particular library implementation (it may or may not be a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>null pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>), but the returned pointer shall not be dereferenced.</t>
+    </r>
+  </si>
+  <si>
+    <t>Size of the memory block, in bytes.</t>
+  </si>
+  <si>
+    <t>On success, a pointer to the memory block allocated by the function.</t>
+  </si>
+  <si>
+    <r>
+      <t>The type of this pointer is always </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>void*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, which can be cast to the desired type of data pointer in order to be dereferenceable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If the function failed to allocate the requested block of memory, a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>null pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is returned.</t>
+    </r>
+  </si>
+  <si>
+    <t>/* malloc example: random string generator*/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include &lt;stdio.h&gt;      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/* printf, scanf, NULL */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include &lt;stdlib.h&gt;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/* malloc, free, rand */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> i,n;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  printf (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"How long do you want the string? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  scanf (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"%d"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, &amp;i);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  buffer = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*) malloc (i+1);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (buffer==NULL) exit (1);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (n=0; n&lt;i; n++)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    buffer[n]=rand()%26+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  buffer[i]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'\0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  printf (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"Random string: %s\n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,buffer);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This program generates a string of the length specified by the user and fills it with alphabetic characters. The possible length of this string is only limited by the amount of memory available to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>malloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Data races</t>
+  </si>
+  <si>
+    <t>Only the storage referenced by the returned pointer is modified. No other storage locations are accessed by the call.</t>
+  </si>
+  <si>
+    <r>
+      <t>If the function reuses the same unit of storage released by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>deallocation function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>realloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>), the functions are synchronized in such a way that the deallocation happens entirely before the next allocation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Exceptions (C++)</t>
+  </si>
+  <si>
+    <r>
+      <t>No-throw guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> this function never throws exceptions.</t>
+    </r>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <r>
+      <t>Deallocate memory block </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>calloc</t>
+  </si>
+  <si>
+    <r>
+      <t>Allocate and zero-initialize array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>realloc</t>
+  </si>
+  <si>
+    <r>
+      <t>Reallocate memory block </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>void free (void* ptr);</t>
+  </si>
+  <si>
+    <t>Deallocate memory block</t>
+  </si>
+  <si>
+    <r>
+      <t>A block of memory previously allocated by a call to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>malloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>calloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>realloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is deallocated, making it available again for further allocations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> does not point to a block of memory allocated with the above functions, it causes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>undefined behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>null pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, the function does nothing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Notice that this function does not change the value of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> itself, hence it still points to the same (now invalid) location.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pointer to a memory block previously allocated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>malloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>calloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>realloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>/* free example */</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include &lt;stdlib.h&gt;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/* malloc, calloc, realloc, free */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> * buffer1, * buffer2, * buffer3;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  buffer1 = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*) malloc (100*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sizeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  buffer2 = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*) calloc (100,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sizeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  buffer3 = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*) realloc (buffer2,500*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sizeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  free (buffer1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  free (buffer3);</t>
+  </si>
+  <si>
+    <t>This program has no output. It just demonstrates some ways to allocate and free dynamic memory using the C stdlib functions.</t>
+  </si>
+  <si>
+    <r>
+      <t>Only the storage referenced by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is modified. No other storage locations are accessed by the call.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If the function releases a unit of storage that is reused by a call to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>allocation functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>calloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>malloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>), the functions are synchronized in such a way that the deallocation happens entirely before the next allocation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> does not point to a memory block previously allocated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>malloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>calloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000070"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>realloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, and is not a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>null pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, it causes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>undefined behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Allocate memory block </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;cstring&gt;</t>
+  </si>
+  <si>
+    <t>memset</t>
+  </si>
+  <si>
+    <t>void * memset ( void * ptr, int value, size_t num );</t>
+  </si>
+  <si>
+    <t>Fill block of memory</t>
+  </si>
+  <si>
+    <r>
+      <t>Sets the first </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bytes of the block of memory pointed by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> to the specified </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> (interpreted as an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>unsigned char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Pointer to the block of memory to fill.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <r>
+      <t>Value to be set. The value is passed as an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, but the function fills the block of memory using the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>unsigned char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> conversion of this </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <r>
+      <t>Number of bytes to be set to the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is returned.</t>
+    </r>
+  </si>
+  <si>
+    <t>/* memset example */</t>
+  </si>
+  <si>
+    <t>#include &lt;string.h&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> str[] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"almost every programmer should know memset!"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  memset (str,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,6);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  puts (str);</t>
+  </si>
+  <si>
+    <t>------ every programmer should know memset!</t>
+  </si>
+  <si>
+    <t>memcpy</t>
+  </si>
+  <si>
+    <r>
+      <t>Copy block of memory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>strncpy</t>
+  </si>
+  <si>
+    <r>
+      <t>Copy characters from string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>memcmp</t>
+  </si>
+  <si>
+    <r>
+      <t>Compare two blocks of memory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>void * memcpy ( void * destination, const void * source, size_t num );</t>
+  </si>
+  <si>
+    <t>Copy block of memory</t>
+  </si>
+  <si>
+    <r>
+      <t>Copies the values of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bytes from the location pointed to by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> directly to the memory block pointed to by</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>destination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The underlying type of the objects pointed to by both the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>destination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> pointers are irrelevant for this function; The result is a binary copy of the data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The function does not check for any terminating null character in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> - it always copies exactly </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bytes.</t>
+    </r>
+  </si>
+  <si>
+    <t>To avoid overflows, the size of the arrays pointed to by both the destination and source parameters, shall be at least num bytes, and should not overlap (for overlapping memory blocks, memmove is a safer approach).</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <r>
+      <t>Pointer to the destination array where the content is to be copied, type-casted to a pointer of type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>void*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <r>
+      <t>Pointer to the source of data to be copied, type-casted to a pointer of type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>const void*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of bytes to copy.</t>
+  </si>
+  <si>
+    <r>
+      <t>destination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t> is returned.</t>
+    </r>
+  </si>
+  <si>
+    <t>/* memcpy example */</t>
+  </si>
+  <si>
+    <r>
+      <t>struct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> name[40];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> age;</t>
+    </r>
+  </si>
+  <si>
+    <t>} person, person_copy;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> myname[] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"Pierre de Fermat"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/* using memcpy to copy string: */</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  memcpy ( person.name, myname, strlen(myname)+1 );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  person.age = 46;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/* using memcpy to copy structure: */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  memcpy ( &amp;person_copy, &amp;person, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000B0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sizeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(person) );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  printf (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF600030"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"person_copy: %s, %d \n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, person_copy.name, person_copy.age );</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">person_copy: Pierre de Fermat, 46 </t>
+  </si>
+  <si>
+    <t>memmove</t>
+  </si>
+  <si>
+    <r>
+      <t>Move block of memory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <t>memchr</t>
+  </si>
+  <si>
+    <r>
+      <t>Locate character in block of memory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fill block of memory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(function )</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4346,6 +6514,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000070"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4500,7 +6683,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4582,11 +6765,14 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5094,7 +7280,7 @@
       <c r="B48" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5105,7 +7291,7 @@
       <c r="B49" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" s="13">
@@ -5114,7 +7300,7 @@
       <c r="B50" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3" ht="15">
       <c r="A51" s="13">
@@ -5123,7 +7309,7 @@
       <c r="B51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3" ht="15">
       <c r="A52" s="13">
@@ -5132,7 +7318,7 @@
       <c r="B52" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3" ht="15">
       <c r="A53" s="13">
@@ -5141,7 +7327,7 @@
       <c r="B53" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3" ht="15">
       <c r="A54" s="13">
@@ -5150,7 +7336,7 @@
       <c r="B54" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="29"/>
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" s="13">
@@ -5159,7 +7345,7 @@
       <c r="B55" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="29"/>
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" s="13">
@@ -5168,7 +7354,7 @@
       <c r="B56" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:3" ht="15">
       <c r="A57" s="13">
@@ -5177,7 +7363,7 @@
       <c r="B57" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="29"/>
     </row>
     <row r="58" spans="1:3" ht="15">
       <c r="A58" s="13">
@@ -5186,7 +7372,7 @@
       <c r="B58" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" s="13">
@@ -5195,7 +7381,7 @@
       <c r="B59" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" s="13">
@@ -5204,7 +7390,7 @@
       <c r="B60" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="29"/>
     </row>
     <row r="63" spans="1:3" ht="17.25" thickBot="1">
       <c r="A63" s="19" t="s">
@@ -5295,6 +7481,973 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="42.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A4" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45">
+      <c r="A5" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="52.5" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A20" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="35.25" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="13">
+        <v>2</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="13">
+        <v>4</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="13">
+        <v>6</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="13">
+        <v>7</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="13">
+        <v>8</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="13">
+        <v>9</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="13">
+        <v>10</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="13">
+        <v>11</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="13">
+        <v>12</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A36" s="13">
+        <v>13</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="35.25" thickBot="1">
+      <c r="A41" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="69.75" thickBot="1">
+      <c r="A45" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="35.25" thickBot="1">
+      <c r="A50" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C24:C36"/>
+  </mergeCells>
+  <phoneticPr fontId="21"/>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1" tooltip="Open C++ Shell (in a new window)" display="http://www.cplusplus.com/reference/cstdlib/free/"/>
+    <hyperlink ref="A39" r:id="rId2" display="http://www.cplusplus.com/cstdlib"/>
+    <hyperlink ref="A51" r:id="rId3" display="http://www.cplusplus.com/reference/cstdlib/malloc/"/>
+    <hyperlink ref="A53" r:id="rId4" display="http://www.cplusplus.com/reference/cstdlib/calloc/"/>
+    <hyperlink ref="A55" r:id="rId5" display="http://www.cplusplus.com/reference/cstdlib/realloc/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A4" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5">
+      <c r="A5" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="35.25" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A19" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="13">
+        <v>2</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="13">
+        <v>3</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="13">
+        <v>4</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="13">
+        <v>5</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="13">
+        <v>6</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="13">
+        <v>7</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="13">
+        <v>8</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="13">
+        <v>9</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="13">
+        <v>10</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A33" s="13">
+        <v>11</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A37" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A39" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C23:C33"/>
+  </mergeCells>
+  <phoneticPr fontId="21"/>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" display="http://www.cplusplus.com/cstring:size_t"/>
+    <hyperlink ref="C23" r:id="rId2" tooltip="Open C++ Shell (in a new window)" display="http://www.cplusplus.com/reference/cstring/memset/"/>
+    <hyperlink ref="A40" r:id="rId3" display="http://www.cplusplus.com/reference/cstring/memcpy/"/>
+    <hyperlink ref="A42" r:id="rId4" display="http://www.cplusplus.com/reference/cstring/strncpy/"/>
+    <hyperlink ref="A44" r:id="rId5" display="http://www.cplusplus.com/reference/cstring/memcmp/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A4" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5">
+      <c r="A5" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="13">
+        <v>2</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="13">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="13">
+        <v>4</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="13">
+        <v>5</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="13">
+        <v>6</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="13">
+        <v>7</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="13">
+        <v>8</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="13">
+        <v>9</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="13">
+        <v>10</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="13">
+        <v>11</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="29"/>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="13">
+        <v>12</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" s="29"/>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="13">
+        <v>13</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="29"/>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="13">
+        <v>14</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="13">
+        <v>15</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="13">
+        <v>16</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="13">
+        <v>17</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="13">
+        <v>18</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C46" s="29"/>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="13">
+        <v>19</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="13">
+        <v>20</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="29"/>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="13">
+        <v>21</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="29"/>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="13">
+        <v>22</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="13">
+        <v>23</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A52" s="13">
+        <v>24</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A56" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A58" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C29:C52"/>
+  </mergeCells>
+  <phoneticPr fontId="21"/>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="http://www.cplusplus.com/memmove"/>
+    <hyperlink ref="A22" r:id="rId2" display="http://www.cplusplus.com/cstring:size_t"/>
+    <hyperlink ref="C29" r:id="rId3" tooltip="Open C++ Shell (in a new window)" display="http://www.cplusplus.com/reference/cstring/memcpy/"/>
+    <hyperlink ref="A59" r:id="rId4" display="http://www.cplusplus.com/reference/cstring/memmove/"/>
+    <hyperlink ref="A61" r:id="rId5" display="http://www.cplusplus.com/reference/cstring/memchr/"/>
+    <hyperlink ref="A63" r:id="rId6" display="http://www.cplusplus.com/reference/cstring/memcmp/"/>
+    <hyperlink ref="A65" r:id="rId7" display="http://www.cplusplus.com/reference/cstring/memset/"/>
+    <hyperlink ref="A67" r:id="rId8" display="http://www.cplusplus.com/reference/cstring/strncpy/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C35"/>
@@ -5391,7 +8544,7 @@
       <c r="B23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5402,7 +8555,7 @@
       <c r="B24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="13">
@@ -5411,7 +8564,7 @@
       <c r="B25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="13">
@@ -5420,7 +8573,7 @@
       <c r="B26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="13">
@@ -5429,7 +8582,7 @@
       <c r="B27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="13">
@@ -5438,7 +8591,7 @@
       <c r="B28" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="13">
@@ -5447,7 +8600,7 @@
       <c r="B29" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="13">
@@ -5456,7 +8609,7 @@
       <c r="B30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="13">
@@ -5465,7 +8618,7 @@
       <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1">
       <c r="A32" s="13">
@@ -5474,7 +8627,7 @@
       <c r="B32" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
@@ -5641,7 +8794,7 @@
       <c r="B33" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5652,7 +8805,7 @@
       <c r="B34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="13">
@@ -5661,14 +8814,14 @@
       <c r="B35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="13">
         <v>4</v>
       </c>
       <c r="B36" s="22"/>
-      <c r="C36" s="27"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="13">
@@ -5677,7 +8830,7 @@
       <c r="B37" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="13">
@@ -5686,7 +8839,7 @@
       <c r="B38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="13">
@@ -5695,7 +8848,7 @@
       <c r="B39" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="13">
@@ -5704,7 +8857,7 @@
       <c r="B40" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="13">
@@ -5713,14 +8866,14 @@
       <c r="B41" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" s="13">
         <v>10</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="27"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" s="13">
@@ -5729,7 +8882,7 @@
       <c r="B43" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" s="13">
@@ -5738,14 +8891,14 @@
       <c r="B44" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" s="13">
         <v>13</v>
       </c>
       <c r="B45" s="22"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" spans="1:3" ht="15">
       <c r="A46" s="13">
@@ -5754,7 +8907,7 @@
       <c r="B46" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="13">
@@ -5763,7 +8916,7 @@
       <c r="B47" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3" ht="15">
       <c r="A48" s="13">
@@ -5772,7 +8925,7 @@
       <c r="B48" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="1:3" ht="15">
       <c r="A49" s="13">
@@ -5781,14 +8934,14 @@
       <c r="B49" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" s="13">
         <v>18</v>
       </c>
       <c r="B50" s="22"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3" ht="15">
       <c r="A51" s="13">
@@ -5797,7 +8950,7 @@
       <c r="B51" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3" ht="15">
       <c r="A52" s="13">
@@ -5806,7 +8959,7 @@
       <c r="B52" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3" ht="15">
       <c r="A53" s="13">
@@ -5815,14 +8968,14 @@
       <c r="B53" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3" ht="15">
       <c r="A54" s="13">
         <v>22</v>
       </c>
       <c r="B54" s="22"/>
-      <c r="C54" s="27"/>
+      <c r="C54" s="29"/>
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" s="13">
@@ -5831,7 +8984,7 @@
       <c r="B55" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="29"/>
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" s="13">
@@ -5840,7 +8993,7 @@
       <c r="B56" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:3" ht="15">
       <c r="A57" s="13">
@@ -5849,14 +9002,14 @@
       <c r="B57" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="29"/>
     </row>
     <row r="58" spans="1:3" ht="15">
       <c r="A58" s="13">
         <v>26</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" s="13">
@@ -5865,14 +9018,14 @@
       <c r="B59" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="1:3" ht="15">
       <c r="A60" s="13">
         <v>28</v>
       </c>
       <c r="B60" s="22"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="29"/>
     </row>
     <row r="61" spans="1:3" ht="15">
       <c r="A61" s="13">
@@ -5881,7 +9034,7 @@
       <c r="B61" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="29"/>
     </row>
     <row r="62" spans="1:3" ht="15">
       <c r="A62" s="13">
@@ -5890,7 +9043,7 @@
       <c r="B62" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="27"/>
+      <c r="C62" s="29"/>
     </row>
     <row r="63" spans="1:3" ht="15">
       <c r="A63" s="13">
@@ -5899,7 +9052,7 @@
       <c r="B63" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="29"/>
     </row>
     <row r="64" spans="1:3" ht="15">
       <c r="A64" s="13">
@@ -5908,7 +9061,7 @@
       <c r="B64" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="27"/>
+      <c r="C64" s="29"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="13">
@@ -5917,7 +9070,7 @@
       <c r="B65" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="27"/>
+      <c r="C65" s="29"/>
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" t="s">
@@ -6124,7 +9277,7 @@
       <c r="B33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6135,14 +9288,14 @@
       <c r="B34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="13">
         <v>3</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="13">
@@ -6151,7 +9304,7 @@
       <c r="B36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="13">
@@ -6160,7 +9313,7 @@
       <c r="B37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="13">
@@ -6169,7 +9322,7 @@
       <c r="B38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="13">
@@ -6178,7 +9331,7 @@
       <c r="B39" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="13">
@@ -6187,7 +9340,7 @@
       <c r="B40" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="13">
@@ -6196,7 +9349,7 @@
       <c r="B41" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" s="13">
@@ -6205,7 +9358,7 @@
       <c r="B42" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" s="13">
@@ -6214,7 +9367,7 @@
       <c r="B43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="13">
@@ -6223,7 +9376,7 @@
       <c r="B44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" t="s">
@@ -6393,7 +9546,7 @@
       <c r="B21" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6404,7 +9557,7 @@
       <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="13">
@@ -6413,7 +9566,7 @@
       <c r="B23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="13">
@@ -6422,7 +9575,7 @@
       <c r="B24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="13">
@@ -6431,7 +9584,7 @@
       <c r="B25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="13">
@@ -6440,7 +9593,7 @@
       <c r="B26" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="13">
@@ -6449,7 +9602,7 @@
       <c r="B27" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="13">
@@ -6458,7 +9611,7 @@
       <c r="B28" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="13">
@@ -6467,7 +9620,7 @@
       <c r="B29" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="13">
@@ -6476,7 +9629,7 @@
       <c r="B30" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="13">
@@ -6485,7 +9638,7 @@
       <c r="B31" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="13">
@@ -6494,7 +9647,7 @@
       <c r="B32" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="13">
@@ -6503,7 +9656,7 @@
       <c r="B33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="13">
@@ -6512,7 +9665,7 @@
       <c r="B34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="13">
@@ -6521,7 +9674,7 @@
       <c r="B35" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" t="s">
@@ -6697,11 +9850,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A27" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6713,7 +9866,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45.75" thickBot="1">
+    <row r="29" spans="1:2" ht="14.25" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>190</v>
       </c>
@@ -6721,7 +9874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="23.25" thickBot="1">
+    <row r="30" spans="1:2" ht="14.25" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>192</v>
       </c>
@@ -6766,7 +9919,7 @@
       <c r="B40" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6777,14 +9930,14 @@
       <c r="B41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" s="13">
         <v>3</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="27"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" s="13">
@@ -6793,7 +9946,7 @@
       <c r="B43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" s="13">
@@ -6802,7 +9955,7 @@
       <c r="B44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" s="13">
@@ -6811,7 +9964,7 @@
       <c r="B45" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="27"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" spans="1:3" ht="15">
       <c r="A46" s="13">
@@ -6820,7 +9973,7 @@
       <c r="B46" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="13">
@@ -6829,7 +9982,7 @@
       <c r="B47" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3" ht="15">
       <c r="A48" s="13">
@@ -6838,7 +9991,7 @@
       <c r="B48" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="1:3" ht="15">
       <c r="A49" s="13">
@@ -6847,7 +10000,7 @@
       <c r="B49" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" s="13">
@@ -6856,7 +10009,7 @@
       <c r="B50" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3" ht="15">
       <c r="A51" s="13">
@@ -6865,7 +10018,7 @@
       <c r="B51" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1">
       <c r="A52" s="13">
@@ -6874,7 +10027,7 @@
       <c r="B52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1">
       <c r="A55" t="s">
@@ -6947,13 +10100,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -6976,7 +10130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="45">
+    <row r="5" spans="1:1" ht="33.75">
       <c r="A5" s="5" t="s">
         <v>215</v>
       </c>
@@ -6996,7 +10150,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="52.5" thickBot="1">
+    <row r="12" spans="1:1" ht="35.25" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -7038,7 +10192,7 @@
       <c r="B23" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7049,14 +10203,14 @@
       <c r="B24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="13">
         <v>3</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="13">
@@ -7065,7 +10219,7 @@
       <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="13">
@@ -7074,7 +10228,7 @@
       <c r="B27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="13">
@@ -7083,7 +10237,7 @@
       <c r="B28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="13">
@@ -7092,14 +10246,14 @@
       <c r="B29" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="13">
         <v>8</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="13">
@@ -7108,7 +10262,7 @@
       <c r="B31" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="13">
@@ -7117,7 +10271,7 @@
       <c r="B32" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="13">
@@ -7126,7 +10280,7 @@
       <c r="B33" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="13">
@@ -7135,7 +10289,7 @@
       <c r="B34" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="13">
@@ -7144,7 +10298,7 @@
       <c r="B35" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="13">
@@ -7153,7 +10307,7 @@
       <c r="B36" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="13">
@@ -7162,7 +10316,7 @@
       <c r="B37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="13">
@@ -7171,7 +10325,7 @@
       <c r="B38" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="13">
@@ -7180,7 +10334,7 @@
       <c r="B39" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="13">
@@ -7189,7 +10343,7 @@
       <c r="B40" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="13">
@@ -7198,14 +10352,14 @@
       <c r="B41" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="35.25" thickBot="1">
+    <row r="46" spans="1:3" ht="18" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>52</v>
       </c>
@@ -7261,7 +10415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -7291,7 +10445,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="56.25">
+    <row r="5" spans="1:1" ht="33.75">
       <c r="A5" s="5" t="s">
         <v>233</v>
       </c>
@@ -7311,7 +10465,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="52.5" thickBot="1">
+    <row r="12" spans="1:1" ht="35.25" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -7336,7 +10490,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="35.25" thickBot="1">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -7348,7 +10502,7 @@
       <c r="B22" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7359,14 +10513,14 @@
       <c r="B23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="13">
         <v>3</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="13">
@@ -7375,7 +10529,7 @@
       <c r="B25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="13">
@@ -7384,7 +10538,7 @@
       <c r="B26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="13">
@@ -7393,7 +10547,7 @@
       <c r="B27" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="13">
@@ -7402,7 +10556,7 @@
       <c r="B28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="13">
@@ -7411,14 +10565,14 @@
       <c r="B29" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="13">
         <v>9</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="13">
@@ -7427,7 +10581,7 @@
       <c r="B31" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="13">
@@ -7436,7 +10590,7 @@
       <c r="B32" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="13">
@@ -7445,7 +10599,7 @@
       <c r="B33" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="13">
@@ -7454,7 +10608,7 @@
       <c r="B34" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="13">
@@ -7463,7 +10617,7 @@
       <c r="B35" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="13">
@@ -7472,7 +10626,7 @@
       <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="13">
@@ -7481,7 +10635,7 @@
       <c r="B37" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="13">
@@ -7490,7 +10644,7 @@
       <c r="B38" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="13">
@@ -7499,7 +10653,7 @@
       <c r="B39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="13">
@@ -7508,7 +10662,7 @@
       <c r="B40" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" t="s">
@@ -7575,13 +10729,386 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A4" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5">
+      <c r="A5" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="35.25" thickBot="1">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A19" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="13">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="13">
+        <v>3</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="13">
+        <v>4</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="13">
+        <v>5</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="13">
+        <v>6</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="13">
+        <v>7</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="13">
+        <v>8</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="13">
+        <v>9</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="13">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="13">
+        <v>11</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="13">
+        <v>12</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="13">
+        <v>13</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="13">
+        <v>14</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="13">
+        <v>15</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="29"/>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="13">
+        <v>16</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="29"/>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="13">
+        <v>17</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="29"/>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="13">
+        <v>18</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="13">
+        <v>19</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="13">
+        <v>20</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="13">
+        <v>21</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="13">
+        <v>22</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="29"/>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="13">
+        <v>23</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="13">
+        <v>24</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="29"/>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18" thickBot="1">
+      <c r="A53" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="35.25" thickBot="1">
+      <c r="A57" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18" thickBot="1">
+      <c r="A60" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C25:C48"/>
+  </mergeCells>
   <phoneticPr fontId="21"/>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" display="http://www.cplusplus.com/cstdlib:size_t"/>
+    <hyperlink ref="C25" r:id="rId2" tooltip="Open C++ Shell (in a new window)" display="http://www.cplusplus.com/reference/cstdlib/malloc/"/>
+    <hyperlink ref="A61" r:id="rId3" display="http://www.cplusplus.com/reference/cstdlib/free/"/>
+    <hyperlink ref="A63" r:id="rId4" display="http://www.cplusplus.com/reference/cstdlib/calloc/"/>
+    <hyperlink ref="A65" r:id="rId5" display="http://www.cplusplus.com/reference/cstdlib/realloc/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>